--- a/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 13,62</t>
+          <t>2,32; 14,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 6,78</t>
+          <t>-5,31; 6,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 6,76</t>
+          <t>-9,52; 6,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 8,55</t>
+          <t>-2,62; 9,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 3,74</t>
+          <t>-8,19; 3,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 2,56</t>
+          <t>-12,04; 2,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,88</t>
+          <t>1,25; 9,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 3,12</t>
+          <t>-5,07; 3,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,16</t>
+          <t>-8,39; 2,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,94; 63,03</t>
+          <t>7,75; 67,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 32,51</t>
+          <t>-20,31; 29,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 31,14</t>
+          <t>-35,92; 31,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 35,72</t>
+          <t>-9,05; 36,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,78; 15,93</t>
+          <t>-28,29; 13,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 10,52</t>
+          <t>-40,84; 11,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 42,72</t>
+          <t>4,8; 40,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 12,79</t>
+          <t>-18,59; 12,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 9,1</t>
+          <t>-31,67; 8,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 8,22</t>
+          <t>-1,07; 8,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,88</t>
+          <t>-6,71; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 12,99</t>
+          <t>-0,31; 12,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,62</t>
+          <t>-8,59; 0,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 8,87</t>
+          <t>-0,77; 8,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 7,29</t>
+          <t>-3,23; 7,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,42</t>
+          <t>-3,14; 2,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,42</t>
+          <t>-2,6; 3,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 8,24</t>
+          <t>-0,13; 8,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 42,74</t>
+          <t>-4,59; 42,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 10,6</t>
+          <t>-29,1; 11,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 68,21</t>
+          <t>-0,83; 64,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 4,57</t>
+          <t>-40,57; 1,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 53,85</t>
+          <t>-3,55; 50,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 44,37</t>
+          <t>-15,58; 42,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 18,71</t>
+          <t>-14,9; 15,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 19,15</t>
+          <t>-12,06; 20,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 45,12</t>
+          <t>-0,6; 42,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,08</t>
+          <t>-2,36; 5,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,71</t>
+          <t>-6,24; 0,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,06</t>
+          <t>2,17; 11,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 7,75</t>
+          <t>0,02; 7,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,53</t>
+          <t>-1,79; 5,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,17</t>
+          <t>1,17; 8,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,79</t>
+          <t>0,16; 5,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,54</t>
+          <t>-2,67; 2,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 8,73</t>
+          <t>2,74; 8,5</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 47,16</t>
+          <t>-14,21; 45,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 13,75</t>
+          <t>-37,07; 8,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 94,15</t>
+          <t>11,46; 87,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 77,23</t>
+          <t>0,49; 75,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 56,16</t>
+          <t>-13,34; 58,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 85,68</t>
+          <t>7,76; 84,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 49,13</t>
+          <t>1,05; 48,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 21,32</t>
+          <t>-18,47; 19,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,18; 75,64</t>
+          <t>17,78; 72,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,44</t>
+          <t>-3,89; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 0,17</t>
+          <t>-8,02; 0,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,61</t>
+          <t>-5,9; 3,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,64</t>
+          <t>-2,02; 5,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,32</t>
+          <t>-2,34; 4,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,51</t>
+          <t>0,97; 7,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,22</t>
+          <t>-1,9; 4,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,31</t>
+          <t>-4,04; 1,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,66</t>
+          <t>-1,31; 4,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 41,06</t>
+          <t>-21,67; 36,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 1,04</t>
+          <t>-42,35; 3,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 27,19</t>
+          <t>-33,56; 23,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 69,14</t>
+          <t>-17,86; 72,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 66,98</t>
+          <t>-20,08; 59,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,32; 98,03</t>
+          <t>8,03; 98,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 37,82</t>
+          <t>-12,87; 36,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 11,95</t>
+          <t>-28,73; 13,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 40,88</t>
+          <t>-9,04; 39,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,97</t>
+          <t>-3,77; 4,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,38</t>
+          <t>-3,51; 5,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 8,16</t>
+          <t>-0,14; 8,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,85</t>
+          <t>-1,65; 6,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,98</t>
+          <t>-0,21; 7,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,87</t>
+          <t>1,53; 7,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,2</t>
+          <t>-1,72; 4,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,09</t>
+          <t>-0,67; 4,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,98</t>
+          <t>1,84; 7,01</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 69,41</t>
+          <t>-33,21; 56,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 72,56</t>
+          <t>-30,9; 65,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 109,02</t>
+          <t>-1,36; 109,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 116,3</t>
+          <t>-19,95; 113,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 136,05</t>
+          <t>-3,63; 136,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,02; 154,21</t>
+          <t>14,91; 151,49</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 63,14</t>
+          <t>-17,24; 59,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 73,16</t>
+          <t>-6,34; 70,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,66; 105,07</t>
+          <t>18,09; 101,75</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,78</t>
+          <t>-2,91; 2,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,0</t>
+          <t>-2,72; 2,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,75</t>
+          <t>0,49; 5,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,43</t>
+          <t>0,26; 4,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,65; 5,2</t>
+          <t>0,43; 4,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,11</t>
+          <t>0,3; 3,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,12</t>
+          <t>-0,47; 2,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,39</t>
+          <t>-0,22; 3,38</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,11</t>
+          <t>0,9; 4,2</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 71,94</t>
+          <t>-43,61; 70,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 76,47</t>
+          <t>-40,99; 68,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8,28; 136,78</t>
+          <t>6,3; 151,98</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,02; 226,06</t>
+          <t>4,99; 214,94</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>12,62; 253,51</t>
+          <t>3,41; 239,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,24; 212,17</t>
+          <t>8,05; 191,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 100,8</t>
+          <t>-11,05; 90,42</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 108,12</t>
+          <t>-5,84; 103,22</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>14,23; 129,8</t>
+          <t>16,64; 134,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,74</t>
+          <t>0,15; 3,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -0,62</t>
+          <t>-4,15; -0,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,27</t>
+          <t>-0,67; 3,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,58</t>
+          <t>-0,52; 2,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,72</t>
+          <t>-0,46; 2,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,28</t>
+          <t>-1,21; 2,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,72</t>
+          <t>0,23; 2,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,72</t>
+          <t>-1,7; 0,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,21</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,54</t>
+          <t>0,77; 24,25</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -4,33</t>
+          <t>-25,06; -4,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 22,16</t>
+          <t>-4,5; 21,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 21,67</t>
+          <t>-3,97; 23,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 23,0</t>
+          <t>-3,51; 23,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 19,9</t>
+          <t>-9,18; 19,36</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,81; 20,37</t>
+          <t>1,36; 20,24</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 5,41</t>
+          <t>-11,75; 4,86</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 16,13</t>
+          <t>-3,98; 16,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 14,25</t>
+          <t>2,66; 13,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 6,38</t>
+          <t>-4,91; 6,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 6,89</t>
+          <t>-8,96; 6,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 9,15</t>
+          <t>-1,99; 9,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 3,31</t>
+          <t>-8,81; 3,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 2,31</t>
+          <t>-12,09; 2,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 9,35</t>
+          <t>1,34; 9,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 3,08</t>
+          <t>-5,27; 3,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 2,08</t>
+          <t>-8,73; 2,01</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 67,18</t>
+          <t>10,19; 64,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 29,91</t>
+          <t>-18,94; 29,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 31,98</t>
+          <t>-34,89; 29,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 36,68</t>
+          <t>-6,81; 40,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 13,71</t>
+          <t>-29,5; 12,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 11,49</t>
+          <t>-43,0; 8,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 40,26</t>
+          <t>5,42; 43,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 12,96</t>
+          <t>-19,19; 13,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 8,63</t>
+          <t>-32,65; 8,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,13</t>
+          <t>-1,35; 7,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,11</t>
+          <t>-6,89; 1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 12,21</t>
+          <t>0,1; 13,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 0,16</t>
+          <t>-8,53; 0,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,3</t>
+          <t>-1,1; 8,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,19</t>
+          <t>-3,45; 7,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,96</t>
+          <t>-2,81; 3,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 3,71</t>
+          <t>-2,7; 3,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 8,09</t>
+          <t>-0,6; 7,74</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 42,48</t>
+          <t>-6,0; 40,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 11,43</t>
+          <t>-28,79; 10,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 64,27</t>
+          <t>-0,38; 68,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,57; 1,5</t>
+          <t>-40,03; 4,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 50,79</t>
+          <t>-5,71; 51,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 42,41</t>
+          <t>-16,84; 45,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 15,85</t>
+          <t>-13,47; 19,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 20,19</t>
+          <t>-12,6; 21,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 42,62</t>
+          <t>-2,78; 42,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,79</t>
+          <t>-2,76; 5,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,94</t>
+          <t>-6,35; 1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 11,49</t>
+          <t>2,41; 11,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 7,47</t>
+          <t>0,0; 7,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,62</t>
+          <t>-1,61; 5,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,46</t>
+          <t>1,06; 8,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,73</t>
+          <t>0,09; 5,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,32</t>
+          <t>-2,73; 2,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,5</t>
+          <t>2,74; 8,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 45,44</t>
+          <t>-16,03; 45,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 8,08</t>
+          <t>-38,21; 10,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,46; 87,84</t>
+          <t>14,18; 93,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 75,75</t>
+          <t>-2,12; 77,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 58,65</t>
+          <t>-11,83; 56,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 84,86</t>
+          <t>8,67; 87,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 48,83</t>
+          <t>0,59; 49,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 19,61</t>
+          <t>-18,87; 18,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 72,31</t>
+          <t>18,45; 74,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,01</t>
+          <t>-4,0; 4,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 0,27</t>
+          <t>-8,42; 0,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 3,23</t>
+          <t>-5,78; 3,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,68</t>
+          <t>-2,06; 5,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,91</t>
+          <t>-2,53; 4,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,62</t>
+          <t>0,59; 7,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,11</t>
+          <t>-1,76; 3,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,53</t>
+          <t>-3,91; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,39</t>
+          <t>-1,48; 4,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 36,41</t>
+          <t>-21,26; 36,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 3,26</t>
+          <t>-45,21; 1,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 23,52</t>
+          <t>-32,26; 26,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 72,14</t>
+          <t>-18,27; 64,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 59,95</t>
+          <t>-21,57; 60,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,03; 98,15</t>
+          <t>3,0; 94,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 36,29</t>
+          <t>-12,74; 33,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 13,47</t>
+          <t>-27,75; 14,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 39,16</t>
+          <t>-9,87; 37,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,33</t>
+          <t>-3,74; 4,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,0</t>
+          <t>-3,14; 5,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,24</t>
+          <t>0,23; 8,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,01</t>
+          <t>-1,35; 5,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 7,25</t>
+          <t>-0,11; 7,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,53; 7,97</t>
+          <t>1,14; 7,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,11</t>
+          <t>-1,33; 4,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 4,91</t>
+          <t>-0,43; 5,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,01</t>
+          <t>2,01; 7,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 56,56</t>
+          <t>-32,17; 57,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 65,77</t>
+          <t>-27,93; 66,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 109,52</t>
+          <t>0,62; 108,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 113,13</t>
+          <t>-16,54; 114,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 136,09</t>
+          <t>-2,11; 146,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>14,91; 151,49</t>
+          <t>12,73; 157,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 59,44</t>
+          <t>-14,19; 62,74</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 70,26</t>
+          <t>-5,53; 78,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,09; 101,75</t>
+          <t>18,55; 108,36</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 2,8</t>
+          <t>-2,92; 2,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,73</t>
+          <t>-3,03; 2,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,68</t>
+          <t>0,36; 5,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,35</t>
+          <t>0,06; 4,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,73</t>
+          <t>0,82; 5,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,99</t>
+          <t>0,1; 4,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,93</t>
+          <t>-0,34; 3,19</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,38</t>
+          <t>-0,1; 3,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,2</t>
+          <t>0,94; 4,23</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 70,51</t>
+          <t>-43,29; 69,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 68,13</t>
+          <t>-43,46; 69,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,3; 151,98</t>
+          <t>3,24; 146,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,99; 214,94</t>
+          <t>-1,77; 212,85</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,41; 239,2</t>
+          <t>16,42; 249,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>8,05; 191,96</t>
+          <t>1,97; 196,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 90,42</t>
+          <t>-7,5; 106,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 103,22</t>
+          <t>-5,42; 104,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>16,64; 134,49</t>
+          <t>20,06; 134,89</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,68</t>
+          <t>0,05; 3,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,58</t>
+          <t>-4,09; -0,47</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,15</t>
+          <t>-0,93; 3,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,78</t>
+          <t>-0,43; 2,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,72</t>
+          <t>-0,56; 2,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,28</t>
+          <t>-0,81; 2,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,71</t>
+          <t>0,19; 2,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,65</t>
+          <t>-1,72; 0,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,47; 2,2</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,77; 24,25</t>
+          <t>0,29; 24,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -4,13</t>
+          <t>-24,28; -3,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 21,37</t>
+          <t>-5,56; 21,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 23,41</t>
+          <t>-3,31; 21,82</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 23,34</t>
+          <t>-4,13; 22,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 19,36</t>
+          <t>-6,31; 21,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,36; 20,24</t>
+          <t>1,27; 19,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 4,86</t>
+          <t>-11,87; 4,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 16,14</t>
+          <t>-3,21; 16,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-4,07</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 6,45</t>
+          <t>-10,16; 5,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 2,11</t>
+          <t>-12,08; 2,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,01</t>
+          <t>-9,83; 1,19</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>-12,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,23%</t>
+          <t>-18,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,44%</t>
+          <t>-16,02%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 29,72</t>
+          <t>-40,35; 24,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 8,59</t>
+          <t>-41,76; 10,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 8,01</t>
+          <t>-37,0; 5,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>1,5</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 13,43</t>
+          <t>-1,11; 12,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,63</t>
+          <t>-8,68; 4,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,74</t>
+          <t>-4,36; 5,66</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>-4,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>7,54%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 68,24</t>
+          <t>-5,07; 61,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 45,19</t>
+          <t>-42,6; 28,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 42,01</t>
+          <t>-20,96; 29,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,22</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 11,85</t>
+          <t>1,75; 11,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,38</t>
+          <t>0,73; 7,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,7</t>
+          <t>2,25; 8,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>40,04%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,18; 93,39</t>
+          <t>9,93; 88,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 87,19</t>
+          <t>5,87; 82,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,45; 74,01</t>
+          <t>15,33; 69,4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 3,79</t>
+          <t>-12,13; 1,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,51</t>
+          <t>-0,39; 6,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 4,3</t>
+          <t>-6,55; 2,21</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>-30,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>-6,57%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 26,45</t>
+          <t>-68,08; 7,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 94,69</t>
+          <t>-3,7; 86,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 37,05</t>
+          <t>-45,01; 18,0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,17</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 8,23</t>
+          <t>-0,37; 7,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,92</t>
+          <t>1,06; 7,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,22</t>
+          <t>1,66; 6,83</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>50,36%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,62; 108,4</t>
+          <t>-3,7; 100,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,73; 157,6</t>
+          <t>11,75; 154,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,55; 108,36</t>
+          <t>15,38; 103,02</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>1,54</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,68</t>
+          <t>-1,84; 6,03</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,84</t>
+          <t>-2,72; 4,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,79</t>
+          <t>-0,16; 7,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,38</t>
+          <t>-1,55; 4,96</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,05</t>
+          <t>0,28; 7,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 4,06</t>
+          <t>-4,81; 3,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,19</t>
+          <t>-0,93; 4,33</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,29</t>
+          <t>-0,34; 5,15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,23</t>
+          <t>-2,28; 4,38</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>57,6%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>32,36%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 69,87</t>
+          <t>-28,4; 167,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 69,21</t>
+          <t>-42,35; 137,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3,24; 146,38</t>
+          <t>-2,39; 211,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 212,85</t>
+          <t>-30,4; 175,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,42; 249,92</t>
+          <t>3,77; 272,76</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,97; 196,54</t>
+          <t>-65,28; 95,47</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 106,43</t>
+          <t>-17,61; 124,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 104,0</t>
+          <t>-6,12; 154,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>20,06; 134,89</t>
+          <t>-36,03; 116,86</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,61</t>
+          <t>-6,44; 1,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,47</t>
+          <t>-5,43; 3,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,23</t>
+          <t>-2,49; 5,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,6</t>
+          <t>0,83; 5,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,63</t>
+          <t>-0,13; 4,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,44</t>
+          <t>1,4; 5,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,64</t>
+          <t>-1,25; 3,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,65</t>
+          <t>-1,41; 3,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,2</t>
+          <t>0,66; 4,47</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>-46,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>-18,84%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>231,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>162,34%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>240,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>90,28%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-81,82; 46,01</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-67,61; 103,33</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-34,05; 163,73</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 1267,97</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-23,05; 1031,25</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>34,29; 1254,41</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-30,94; 148,85</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-36,73; 166,52</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 233,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 3,61</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; -0,47</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 1,87</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 2,6</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 2,63</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 1,67</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,64</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 0,65</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 1,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-14,27%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-3,73%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>0,29; 24,16</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-24,28; -3,17</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 21,43</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-26,05; 12,01</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-3,31; 21,82</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-4,13; 22,1</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 21,26</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-18,25; 13,84</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>1,27; 19,59</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-11,87; 4,95</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 16,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 8,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 13,26</t>
+          <t>1,86; 12,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 6,19</t>
+          <t>-5,3; 6,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 5,18</t>
+          <t>-10,66; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 9,78</t>
+          <t>-3,33; 8,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 3,13</t>
+          <t>-8,84; 3,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 2,34</t>
+          <t>-12,82; 3,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 9,93</t>
+          <t>1,41; 9,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 3,23</t>
+          <t>-4,7; 3,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 1,19</t>
+          <t>-9,03; 2,02</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,19; 64,19</t>
+          <t>6,48; 61,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 29,57</t>
+          <t>-20,02; 32,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 24,55</t>
+          <t>-41,79; 24,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 40,97</t>
+          <t>-11,07; 38,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 12,87</t>
+          <t>-28,62; 13,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 10,25</t>
+          <t>-44,3; 12,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 43,35</t>
+          <t>5,27; 41,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 13,82</t>
+          <t>-17,86; 14,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 5,23</t>
+          <t>-33,98; 8,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 7,8</t>
+          <t>-1,09; 8,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,96</t>
+          <t>-6,93; 1,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 12,04</t>
+          <t>-1,04; 11,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,7</t>
+          <t>-8,24; 0,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,41</t>
+          <t>-1,32; 8,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 4,89</t>
+          <t>-8,02; 4,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,52</t>
+          <t>-3,32; 3,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,82</t>
+          <t>-2,32; 3,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,66</t>
+          <t>-3,77; 5,86</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 40,08</t>
+          <t>-4,35; 44,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,79; 10,75</t>
+          <t>-29,23; 10,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 61,93</t>
+          <t>-4,71; 58,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 4,49</t>
+          <t>-40,13; 0,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 51,73</t>
+          <t>-6,22; 50,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 28,38</t>
+          <t>-40,89; 28,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 19,11</t>
+          <t>-15,13; 16,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 21,04</t>
+          <t>-11,1; 19,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 29,97</t>
+          <t>-17,61; 30,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 5,66</t>
+          <t>-2,29; 6,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 1,34</t>
+          <t>-6,18; 1,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 11,17</t>
+          <t>1,54; 10,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,72</t>
+          <t>-0,01; 7,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,46</t>
+          <t>-1,33; 5,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,93</t>
+          <t>0,44; 7,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,65</t>
+          <t>0,02; 5,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,23</t>
+          <t>-2,96; 2,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,17</t>
+          <t>2,45; 8,43</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 45,63</t>
+          <t>-14,1; 47,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,21; 10,24</t>
+          <t>-36,84; 9,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 88,2</t>
+          <t>9,32; 82,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 77,6</t>
+          <t>-1,61; 75,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 56,07</t>
+          <t>-10,87; 52,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 82,72</t>
+          <t>2,17; 79,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 49,18</t>
+          <t>0,2; 46,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 18,95</t>
+          <t>-20,59; 19,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,33; 69,4</t>
+          <t>17,19; 71,35</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 4,98</t>
+          <t>-4,26; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 0,03</t>
+          <t>-8,38; 0,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 1,09</t>
+          <t>-13,51; 0,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,38</t>
+          <t>-2,06; 5,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,84</t>
+          <t>-2,35; 5,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 6,7</t>
+          <t>-0,27; 6,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,91</t>
+          <t>-1,76; 3,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 1,7</t>
+          <t>-4,19; 1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,21</t>
+          <t>-6,25; 2,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 36,84</t>
+          <t>-23,22; 37,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 1,24</t>
+          <t>-44,43; 2,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 7,85</t>
+          <t>-71,36; 4,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 64,98</t>
+          <t>-17,46; 70,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 60,21</t>
+          <t>-19,73; 65,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 86,21</t>
+          <t>-3,01; 90,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 33,65</t>
+          <t>-12,29; 33,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 14,44</t>
+          <t>-29,24; 15,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 18,0</t>
+          <t>-44,01; 20,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,38</t>
+          <t>-4,3; 4,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,14</t>
+          <t>-3,26; 5,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 7,52</t>
+          <t>0,0; 7,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 5,94</t>
+          <t>-1,29; 6,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,74</t>
+          <t>-0,44; 7,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,75</t>
+          <t>1,21; 7,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 4,22</t>
+          <t>-1,45; 4,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,32</t>
+          <t>-0,79; 5,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,83</t>
+          <t>1,6; 6,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,17; 57,57</t>
+          <t>-33,31; 54,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 66,83</t>
+          <t>-27,37; 70,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 100,18</t>
+          <t>-0,56; 103,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 114,57</t>
+          <t>-17,28; 119,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 146,87</t>
+          <t>-6,78; 146,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>11,75; 154,46</t>
+          <t>10,19; 149,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 62,74</t>
+          <t>-16,0; 56,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 78,35</t>
+          <t>-8,36; 71,58</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,38; 103,02</t>
+          <t>15,56; 98,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,03</t>
+          <t>-2,08; 5,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,77</t>
+          <t>-2,38; 5,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,31</t>
+          <t>-0,08; 7,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,96</t>
+          <t>-1,51; 4,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,28; 7,2</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,29</t>
+          <t>-4,15; 3,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,33</t>
+          <t>-0,81; 4,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,15</t>
+          <t>-0,35; 4,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,38</t>
+          <t>-2,04; 4,17</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 167,69</t>
+          <t>-31,16; 165,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 137,57</t>
+          <t>-35,93; 151,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 211,84</t>
+          <t>-3,79; 201,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 175,86</t>
+          <t>-30,98; 171,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>3,77; 272,76</t>
+          <t>-2,75; 243,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-65,28; 95,47</t>
+          <t>-62,38; 108,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 124,19</t>
+          <t>-13,2; 115,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 154,16</t>
+          <t>-7,15; 137,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 116,86</t>
+          <t>-34,75; 107,3</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,08</t>
+          <t>-6,42; 1,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,21</t>
+          <t>-5,36; 2,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,37</t>
+          <t>-2,21; 5,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,9</t>
+          <t>0,68; 5,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,64</t>
+          <t>-0,16; 4,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,15</t>
+          <t>1,2; 5,01</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,04</t>
+          <t>-1,22; 2,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,17</t>
+          <t>-1,17; 3,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,47</t>
+          <t>0,68; 4,62</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-81,82; 46,01</t>
+          <t>-78,98; 56,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-67,61; 103,33</t>
+          <t>-68,57; 91,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 163,73</t>
+          <t>-29,47; 178,98</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,17; 1267,97</t>
+          <t>-3,71; 1136,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 1031,25</t>
+          <t>-30,69; 997,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>34,29; 1254,41</t>
+          <t>33,11; 1261,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 148,85</t>
+          <t>-30,05; 146,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 166,52</t>
+          <t>-28,85; 156,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>13,71; 233,19</t>
+          <t>15,96; 251,18</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,61</t>
+          <t>0,08; 3,82</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,47</t>
+          <t>-4,09; -0,44</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,87</t>
+          <t>-3,58; 2,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,6</t>
+          <t>-0,59; 2,72</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,63</t>
+          <t>-0,36; 2,78</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,67</t>
+          <t>-2,71; 1,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,64</t>
+          <t>0,2; 2,66</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,65</t>
+          <t>-1,79; 0,76</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,23</t>
+          <t>-2,22; 1,24</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,16</t>
+          <t>0,47; 25,95</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-24,28; -3,17</t>
+          <t>-24,69; -2,96</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 12,01</t>
+          <t>-21,6; 13,83</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 21,82</t>
+          <t>-4,36; 23,21</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 22,1</t>
+          <t>-2,83; 23,87</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 13,84</t>
+          <t>-20,04; 13,29</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>1,27; 19,59</t>
+          <t>1,31; 19,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 4,95</t>
+          <t>-12,3; 5,63</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 8,96</t>
+          <t>-15,5; 9,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
